--- a/biology/Histoire de la zoologie et de la botanique/Jean-Jacques_Bourassé/Jean-Jacques_Bourassé.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-Jacques_Bourassé/Jean-Jacques_Bourassé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Jacques_Bourass%C3%A9</t>
+          <t>Jean-Jacques_Bourassé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'abbé Jean-Jacques Bourassé est un prêtre et archéologue français, né à Sainte-Maure-de-Touraine (Indre-et-Loire) le 22 décembre 1813 et mort le 4 octobre 1872 à Tours[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'abbé Jean-Jacques Bourassé est un prêtre et archéologue français, né à Sainte-Maure-de-Touraine (Indre-et-Loire) le 22 décembre 1813 et mort le 4 octobre 1872 à Tours.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Jacques_Bourass%C3%A9</t>
+          <t>Jean-Jacques_Bourassé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prêtre catholique, chanoine de l'église métropolitaire de Tours, il est professeur de théologie, de liturgie et de zoologie au petit séminaire de Tours[2]. Il est décoré de la Légion d'honneur en 1854 au titre de ses fonctions ecclésiastiques.
-Membre de la Société entomologique de France, on lui doit de nombreux ouvrages élémentaires d’histoire naturelle, quelques éditions ou traductions d’ouvrages théologiques et également de nombreuses publications archéologiques. De 1840 à 1873, il devient membre correspondant du Cths et correspondant pour la Commission de topographie des Gaules à partir de 1865[3].
-L'abbé Bourassé fut également le 4e président de la Société archéologique de Touraine de 1853 à 1859, puis le 6e de 1862 à 1868[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prêtre catholique, chanoine de l'église métropolitaire de Tours, il est professeur de théologie, de liturgie et de zoologie au petit séminaire de Tours. Il est décoré de la Légion d'honneur en 1854 au titre de ses fonctions ecclésiastiques.
+Membre de la Société entomologique de France, on lui doit de nombreux ouvrages élémentaires d’histoire naturelle, quelques éditions ou traductions d’ouvrages théologiques et également de nombreuses publications archéologiques. De 1840 à 1873, il devient membre correspondant du Cths et correspondant pour la Commission de topographie des Gaules à partir de 1865.
+L'abbé Bourassé fut également le 4e président de la Société archéologique de Touraine de 1853 à 1859, puis le 6e de 1862 à 1868.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Jacques_Bourass%C3%A9</t>
+          <t>Jean-Jacques_Bourassé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Quelques œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Histoire naturelle des oiseaux, des reptiles et des poissons, Tours, Alfred Mame, 1840.
 Esquisses entomologiques, Tours, Alfred Mame, 1842.
